--- a/CATS/src/test/java/testdata/TestData.xlsx
+++ b/CATS/src/test/java/testdata/TestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370FC3F-B13C-4C30-BE6B-DB775E9A38E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0320AE-DFE0-46BC-94AA-5B9B2AEB2B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>don1thack</t>
   </si>
@@ -66,6 +66,57 @@
   </si>
   <si>
     <t>53357214</t>
+  </si>
+  <si>
+    <t>SendLettersbyMail</t>
+  </si>
+  <si>
+    <t>SendInvoicesByMail</t>
+  </si>
+  <si>
+    <t>OptOutEmailNotification</t>
+  </si>
+  <si>
+    <t>ACHSelection</t>
+  </si>
+  <si>
+    <t>Enable ACH</t>
+  </si>
+  <si>
+    <t>BankRoutionNumber</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>011000015</t>
+  </si>
+  <si>
+    <t>BankAccountNum</t>
+  </si>
+  <si>
+    <t>ReenterBankAccountNum</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>BankAccountType</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>IAuthorize</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CalendarDay</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -484,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D071FE2-89C5-4C36-B925-609C062F8AEB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,9 +546,18 @@
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -507,8 +567,38 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -517,6 +607,36 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
